--- a/assignment_1/용역_빅데이터_목록.xlsx
+++ b/assignment_1/용역_빅데이터_목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BABB9FD-6278-43AE-8195-A19C2C0E6583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E5F36B-E8E4-4D40-8E0A-15D3FAACBA09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{B9167437-F169-4412-BCA2-1B5C38C25F2B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="143">
   <si>
     <t>용역</t>
   </si>
@@ -597,6 +597,7 @@
   </si>
   <si>
     <t>첨부자료 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1372,8 +1373,9 @@
       <c r="H12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K12" t="s">
-        <v>142</v>
+      <c r="K12" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\2021년 국립중앙도서관 도서관 빅데이터 분석활용 시스템 운영 사업.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -1401,8 +1403,9 @@
       <c r="H13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K13" t="s">
-        <v>142</v>
+      <c r="K13" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\경남산업 생태계 빅데이터 플랫폼 구축.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -1436,8 +1439,9 @@
       <c r="J14" t="s">
         <v>102</v>
       </c>
-      <c r="K14" t="s">
-        <v>142</v>
+      <c r="K14" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\환경보건 생체 빅데이터 R&amp;D 중장기 로드맵 수립 연구.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -1468,8 +1472,9 @@
       <c r="J15" t="s">
         <v>102</v>
       </c>
-      <c r="K15" t="s">
-        <v>142</v>
+      <c r="K15" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\전라남도 빅데이터 허브 구축사업 감리용역.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -1500,8 +1505,9 @@
       <c r="J16" t="s">
         <v>102</v>
       </c>
-      <c r="K16" t="s">
-        <v>142</v>
+      <c r="K16" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\서울교통 빅데이터 플랫폼 구축 감리용역.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -1532,8 +1538,9 @@
       <c r="J17" t="s">
         <v>102</v>
       </c>
-      <c r="K17" t="s">
-        <v>142</v>
+      <c r="K17" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\2020년 경북관광 빅데이터 분석 용역.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -1567,8 +1574,9 @@
       <c r="J18" t="s">
         <v>102</v>
       </c>
-      <c r="K18" t="s">
-        <v>142</v>
+      <c r="K18" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\보건의료 빅데이터 플랫폼 정보화관리(PMO) 사업.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -1599,8 +1607,9 @@
       <c r="J19" t="s">
         <v>127</v>
       </c>
-      <c r="K19" t="s">
-        <v>142</v>
+      <c r="K19" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\LH 스마트시티 빅데이터 운영관리 사업모델 방안 연구용역.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -1667,8 +1676,9 @@
       <c r="J21" t="s">
         <v>45</v>
       </c>
-      <c r="K21" t="s">
-        <v>142</v>
+      <c r="K21" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\산업단지 빅데이터 기반 B2B지원플랫폼 ISP 수립.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -1696,8 +1706,9 @@
       <c r="H22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K22" t="s">
-        <v>142</v>
+      <c r="K22" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\[재공고]교육혁신팀 빅데이터 분석 교육을 위한 특허 데이터 구입.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -1728,8 +1739,9 @@
       <c r="J23" t="s">
         <v>102</v>
       </c>
-      <c r="K23" t="s">
-        <v>142</v>
+      <c r="K23" s="2" t="str">
+        <f>HYPERLINK("C:\Users\Coreplus-PC\Documents\UiPath\assignment_1\ZipData\2020년 경북관광 빅데이터 분석 데이터(통신, 카드) 구매 용역.zip", "첨부자료")</f>
+        <v>첨부자료</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="66" x14ac:dyDescent="0.3">
